--- a/Experimental Data/25April2022 Phi vs P22 Flasks/spinvsfiltercompassayMay27.xlsx
+++ b/Experimental Data/25April2022 Phi vs P22 Flasks/spinvsfiltercompassayMay27.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abisesi/Desktop/PhD/Projects/Host-Ecology-and-Host-Range/Experimental Data/25April2022 Phi vs P22 Flasks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9593E640-C7C3-6445-8032-2977A40EBC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A584138-4FFA-184F-B5F6-2C4CBDF8F286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15300" activeTab="3" xr2:uid="{98157BCB-FAEF-6240-A369-0B0C49FA2D81}"/>
   </bookViews>
@@ -4437,7 +4437,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E49"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5378,15 +5378,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F30C7A40-4737-E148-A805-86A62A769392}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5403,7 +5406,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5421,12 +5424,8 @@
         <f>STDEV(PFU_raw_filter!$D2:$D4)</f>
         <v>23.094010767585083</v>
       </c>
-      <c r="G2">
-        <f>D2/(D2+D13)</f>
-        <v>0.61904761904761907</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5445,7 +5444,7 @@
         <v>23.094010767585083</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5464,7 +5463,7 @@
         <v>23.094010767585083</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5483,7 +5482,7 @@
         <v>23.094010767585083</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5502,7 +5501,7 @@
         <v>23.094010767585083</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5521,7 +5520,7 @@
         <v>23.094010767585083</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5540,7 +5539,7 @@
         <v>23.094010767585083</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -5559,7 +5558,7 @@
         <v>23.094010767585083</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5578,7 +5577,7 @@
         <v>23.094010767585083</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -5597,7 +5596,7 @@
         <v>23.094010767585083</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5616,7 +5615,7 @@
         <v>23.094010767585083</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -5635,7 +5634,7 @@
         <v>46.188021535170051</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -5654,7 +5653,7 @@
         <v>46.188021535170051</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -5673,7 +5672,7 @@
         <v>46.188021535170051</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
